--- a/500all/speech_level/speeches_CHRG-114hhrg94772.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94772.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,45 +52,30 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman. Today's meeting continues a very familiar trend of holding hearings to criticize the Administration's work under the Endangered Species Act without inviting the Administration to testify. A balanced hearing on this topic would include witnesses from the Bureau of Land Management and the U.S. Forest Service, which together manage the 64 percent of the remaining greater sage grouse habitat that is located in the U.S. public lands.    It would also include the U.S. Fish and Wildlife Service, the agency that will decide, based on the best-available science, whether the bird warrants protection under ESA. Instead, the Majority has invited political appointees, not scientists, from three states who claim they have been frozen out by Federal managers and their efforts to conserve sage grouse--and their efforts are sufficient.    As far as their claim of having no access, nothing could be further from the truth. Federal agencies have worked closely with the 11 relevant states throughout the process of developing science-based strategies to conserve sage grouse and their habitat. I am sure if the Republicans had invited any of these agencies, they would have told us more about this collaborative effort.    Even as they have worked closely with state officials, Federal agencies have gone out of their way to let states prove they have sufficient local conservation measures in place. Federal officials have asked states to submit plans that balance conservation needs with other state priorities for public and private lands. Last year, the Fish and Wildlife Service approved such a plan for Wyoming, and I am hopeful other states will take advantage of this opportunity.    To be clear, the states cannot reach their goal of avoiding an ESA listing of the greater sage grouse unless their plans create certainty that the bird is not threatened with extinction. The greater sage grouse has been wiped out in two states, and has seen its range nearly cut in half because of habitat destruction. At one point, as many as 16 million greater sage grouse called the sagebrush sea ecosystem their home. Now the population has been reduced to as few as 200,000 birds.    I am confident that the necessary work can be accomplished in advance of the September 30 deadline, and that the greater sage grouse can become an ESA success story. Fish and Wildlife Service and the states themselves agree that a not-warranted decision is within reach.    Unfortunately, some Members are attempting to snatch defeat from the jaws of victory. They support legislation to delay a listing decision and give up control of the people's lands to state governments that lack the resources to manage them. Instead of supporting an unprecedented cooperative conservation effort, some Members on this committee are undertaking efforts to undermine the entire process. They have gone as far as arguing that protecting the greater sage grouse could impact military readiness, a claim which has been roundly discredited by the Defense Department.    I understand why some people want to short-circuit this process. If it works, then ESA works. A successful plan that avoids species listing and protects a landscape stretching across multiple states, while also allowing for economic development, would undercut arguments in favor of weakening the Act.    The ESA has been the catalyst for conservation of many species and landscapes across this country. We are close to another success with the greater sage grouse. The only thing standing in the way is a group of people more concerned about the extinction of their talking points than the extinction of the species.    Again, I thank the witnesses for being here today, and I yield back the remainder of my time.</t>
   </si>
   <si>
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. Thank you for having this hearing. Thank you for your flexibility. It is my honor to introduce one of our witnesses, Mr. John Swartout, who is the Senior Policy Advisor, as you said, for Governor John Hickenlooper.    In the past, Mr. Swartout has been Executive Director of Greater Outdoors Colorado, GOCO, and of the Colorado Coalition of Land Trust; so he does have a lot of resource and land background and experience. In addition to working for Governor Hickenlooper, he has worked in the past for Senator Wayne Allard and Governor Bill Owens. He is one of these individuals whose abilities are sought out by governors and administrations on both sides of the aisle, and I think that is a real testament to his ability. I am glad we can have him here today; and I really commend his testimony to everyone who is at this hearing, and listening, and will read later, like I will, because I can't stay for the whole hearing.    So thank you, Mr. Chairman. I yield back.    The Chairman. Thank you, Mr. Lamborn.    Mr. Polis, I understand Mr. Arnett is your constituent.</t>
   </si>
   <si>
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you. I am thrilled to welcome Dr. Arnett from Loveland, Colorado. Dr. Arnett, who has his Ph.D. in forest science from Oregon State University, is the Senior Scientist at the Theodore Roosevelt Conservation Partnership. His other academic degrees include natural resource management, fish and wildlife management, zoology, and physiology. He worked as a wildlife biologist for the Forest Service and for the U.S. Fish and Wildlife Service.    After he finished his doctorate, he joined an international conservation effort. He also is part of a public television series, ``This American Land,'' that helps educate the American public about our natural resources. He is also an avid sportsman, enjoys big-game hunting, fly fishing, and water foul and upland bird hunting, and is also an American Kennel Club judge.    I am really thrilled to welcome, from Loveland, Colorado, Dr. Ed Arnett. I yield back.    The Chairman. Thank you. Mr. Labrador, if you would like to introduce Mr. Miller from the state of Idaho.</t>
   </si>
   <si>
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you very much, Mr. Chairman. I am pleased to introduce Dustin Miller this morning. It is great to have him here. He is a graduate of the University of Idaho, with a degree in environmental science. He served as a natural resources field coordinator to Idaho Senator Larry Craig before he joined Governor Otter's Office of Species Conservation in 2008.    At OSC he served first as a Project Manager and Policy Advisor for Terrestrial Wildlife Issues, and has served as the Administrator of the agency for nearly 3 years now. The Office of Species Conservation is charged with coordinating and implementing policies and programs related to the conservation and recovery of species listed as threatened, endangered, or candidate under the Endangered Species Act in Idaho. In his position at OSC, Dustin has worked tirelessly and led statewide efforts to develop Idaho's sage grouse management plan. They have done a terrific job, and I thank you for being here today.    The Chairman. Thank you. I appreciate that.    Kathleen, I will apologize. You are from my state. It is not going to be as flowery as the other introductions. I apologize for that.    She had the opportunity of having a lot of experience in the state of Utah, and then, I think about the time I came back here, she also came back here as the Director of the Bureau of Land Management. She spent 5 years in that thankless job, and did a marvelous job in trying to bring some kind of balance to the entire situation. After retirement from that, she has gone back to the state where she is still working now with Governor Herbert's Office, dealing with the Public Lands Policy Coordinating Office.    I have to admit, in a whole bunch of areas when it has come to land issues, you have been a valuable resource in everything that we are trying to do in Utah, from the public lands initiative, to this area that deals with sage grouse. I appreciate your willingness to come back here and be with us in a hearing room that you have, I am sure, many fond and maybe not-so-fond memories from your past experience.    [Laughter.]    The Chairman. But it is great to have you here. I thank all the witnesses, especially because I know how long it takes to travel from out in the real world, where we live, to come back here; so I appreciate you doing that.    With that, and with appreciation for making the break so we could do those, I would go back to our opening statements. I will recognize the Vice Chairman, the gentlelady from Wyoming.</t>
   </si>
   <si>
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman. The purpose of this hearing, as I understand it, is to allow states to tell their remarkable stories. I appreciate that you have given them a voice. We will catch the Administration's position on another day.    In 2011, Secretary Salazar invited the states to take the lead in conserving sage grouse. The goal was preventing a species listing that would devastate western economies, which it can because it affects 11 states. The states have responded with tens of millions of dollars, countless man hours, and an unprecedented dedication to sage grouse conservation.    But what we have found out as states is, because there are 11 states, and the issues that threaten sage grouse populations in these 11 states are so different, a cookie-cutter approach won't work. Each state is unique in their ecology, their economies, their culture, their sage grouse habitat, and the reasons for sage grouse to decline in their states are very different, some within the control of mankind, some not.    I am proud to say that Wyoming has led the pack by securing the first and only federally approved state sage grouse plan. Our plan makes sense for Wyoming. It balances sage grouse conservation with energy production, agriculture, and other human necessities. But each state varies in the type and degree of threats to sage grouse. For some, like in Wyoming, it is primarily oil and gas production. In others, like Utah and Nevada, it is wildfires and drought.    So, you cannot use the same methodology in each state to address the problem. The factors aren't static, even within a state. States are in the best position to be nimble, and to respond to the conditions on the ground. And states can achieve this better in real time, as they adjust to the conditions they are dealing with, rather than on paper in the Federal Register.    That is why the Fish and Wildlife Service needs to allow states to craft plans that are as unique as the states themselves. This isn't just important for the sage grouse, it is important for my state of Wyoming; because no matter how solid Wyoming's plan is, if the sage grouse is listed anywhere, it is listed everywhere, including Wyoming.    So this hearing, Mr. Chairman, is also very timely, in light of yesterday's announcement by the Administration that they will pursue some administrative changes to the Endangered Species Act. It is a refreshing day when the Administration admits that the law needs more transparency, more state and local involvement, and less unproductive litigation. These are exactly the kind of improvements that were passed last year, and by the full House, as part of H.R. 4315. We had four bills that we bundled and sent to the Floor that came out of this committee that did exactly that.    Now, the Administration has previously spurned this committee's efforts to improve the Act and defended the deeply flawed system. So we need to make sure that, while the Administration took a positive verbal step yesterday, that they follow through and fix the problems as they exist on the ground, not just here in Washington, among bureaucrats.    So, as we review the Administration's proposals in more detail in the days ahead, I hope they are a sign that we can finally lose the scare tactics, have articles about people that want to tweak the ESA and update the ESA as gutting the ESA. That is hardly the case of what we want to do. We need this open dialog with the Administration on how to bring the ESA into the 21st century. It is a positive sign. This hearing is a positive sign.    Thanks again, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Thank you. It is good to be with the committee, and I find myself in somewhat a unique and interesting position today, having formerly served as the Director of the Bureau of Land Management. When I was in that position, I directed and oversaw the development of a sage grouse strategy for conservation, which was implemented throughout the BLM in 2003 and 2004. And I believe that that contributed significantly to the finding of not-warranted for listing that we had in 2005.    As the current Director of the Public Land Policy Coordinating Office, I was given a similar assignment by Governor Herbert. I was asked to assemble a team of stakeholders, to do a year-long overview of the status of sage grouse in the state of Utah, and to put together a comprehensive sage grouse conservation plan for the state.    I believe that Utah's work in this effort should also contribute to a not-warranted finding. However, despite our good work and tireless efforts to find common ground with our Federal land management agencies, I can tell you that, sadly, I think there is a dichotomy developing between the state's collaborative approach and Federal unilateralism. What started out as a very promising partnership is becoming increasingly imbalanced and, sadly, adversarial.    I want to be clear. The state of Utah is absolutely committed to the conservation, long-term conservation, of the sage grouse. Over $50 million have been invested in the last 10 years in sage grouse conservation, and Utah has only 4 percent of the birds. But that is the second-highest amount that any state has invested in the grouse conservation.    In close partnership with our Federal agencies, we have restored over half-a-million acres of sage grouse habitat. This has been since 2006. Significantly, that is after a not-warranted decision was made. So, fears that if a not-warranted decision comes out, then we stop conservation, are simply not true--at least not in Utah, because that put us to work at an even more rigorous pace.    Research and groundwork have been the hallmark of sage grouse conservation in Utah. We have engaged in an aggressive research program in the state led by Utah State University and other universities, and we have probably the most robust data set on sage grouse of any state in the West. We have over 15 years, a very comprehensive data that has been collected throughout each of our significant sage grouse management areas. That has been done in collaboration with local working groups; these groups are an assemblage of Federal agencies, as well as on-the-ground partners, such as ranchers, farmers and sports enthusiasts, and the scientists. They have worked together to come up with a clear understanding of the needs of the bird.    We have engaged in land management studies involving habitat improvement and restoration, predator control, and population augmentation. And the results, quite frankly, have been stunning and directly contradict the doom and gloom that we are hearing about the sage grouse. We have taken our scientific findings and translated them into very effective conservation practices. As a result of the work, populations in Utah have stabilized and trends are positive.    A recent study by the Pew Foundation failed to recognize that fact, but it also ignored the 9- to 12-year cyclical nature of the birds within the state of Utah, even though the scientist that issued that report had previously acknowledged that cycle in a prior study on population viability. Our matrix for success are far simpler. Recognizing the cyclical nature of populations in Utah, we have the goal of stabilizing these trends by focusing on the most basic conservation need of the birds, and that is the maintenance and the creation of usable habitat for the populations of the birds.    Our conservation plan provides a solid framework for assessing the needs of the birds within the state. Utah is not like Wyoming; we do not have a vast sea of sagebrush. And we are not like the Great Basin. Our most important conservation strategies address the major threats that the species face in Utah, and that is wildfire and the associated invasion of undesirable grasses and the encroachment of conifer trees into the sagebrush. These natural events constitute 97 percent of the threat in the state of Utah, where development, or ex-urban development and energy, only represent 3 percent of the threat to our sage grouse populations.    Our strategies are based upon the best-available science, and we rely on robust data collected for over 20 years. We analyzed every wildfire in our separate sage grouse management areas over a period of 18 years to see where those vulnerabilities were.    The Chairman. Kathleen, I need you to summarize.</t>
   </si>
   <si>
@@ -118,30 +100,18 @@
     <t xml:space="preserve">    Ms. Clarke. OK, all right. I want to emphasize that the state of Utah is fully committed to conserving sage grouse populations. We place great reliance on the substantial contributions of ranchers and other concerned landowners to conserve the species.    And I want to state that I firmly believe that regulations do not conserve species. I believe that people do. And if people are going to work for conservation, conservation has to work for people. In the state of Utah, we have a plan that motivates our private landowners. We work in concert with our Federal partners and our state agencies, and we have a very successful program and look forward to working with all of our partners to continue that into the future. Thank you.</t>
   </si>
   <si>
-    <t>Arnett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Arnett. Good morning, Chairman Bishop, Ranking Member Grijalva, and members of the committee. Thank you very much for the invitation to testify this morning on this very important topic. My name is Ed Arnett, I am the Senior Scientist with the Theodore Roosevelt Conservation Partnership. We are a national sportsman's conservation partnership organization with 42 formal partners, many of those who work very extensively on sage grouse.    I appreciated Mr. Polis' introduction. I have been a professional biologist for 25 years, working with Federal agencies, as well as a Fortune 500 timber-industry company during the spotted owl era that was mentioned earlier; so I have a little bit of background on that particular set of issues. I also have worked with the NGO sector for some time now.    The title of this hearing, ``Empowering State Management of Greater Sage Grouse,'' is an important one to note. The states, in fact--as we have already heard, and we agree with--have been extensively engaged and empowered from the very beginning. Any notion to the contrary would, of course, be misleading.    Indeed, it was the state agency biologists decades ago that brought attention to concerns over sagebrush ecosystems, and increasing concerns about sage grouse. Since then, the states have been full partners with Federal managers, ranchers, and other relevant stakeholders in developing the conservation road map that we see today for sage grouse.    As we have heard and will hear from the states, they have made very important and significant contributions that we certainly appreciate and recognize. TRCP fully supports the state management of all wildlife species, because this is a critical tenant of the North American model that is so important to sportsmen.    There can be no doubt that the best way to maintain oversight of sage grouse and, moreover, hundreds of species that are dependent on this system, is to keep the bird off the Endangered Species List. If we can all agree that that is our shared definition of success, to sustain state management of grouse and keep it from being listed, then we should agree that the path forward is through the development and implementation of both Federal and state plans that are robust to preclude the need to list the species.    This is not an either/or proposition. We need strong plans for our Federal lands; and we need state plans that address private lands, as well as the state lands that operate under different mandates. Of course, we also need our private landowners, and their critical important engagements, to round out a comprehensive strategy for these diverse western landscapes.    We are confident that the conservation measures and collaboration necessary to do this are currently happening across the range of the species, and require no action by this Congress other than the allocation of appropriate levels of funding for sustained management and conservation, so we avoid winding up in the same place further down the road.    The Endangered Species Act is a tool of last resort, and one that certainly is not preferred by sportsmen as a vehicle for conservation; but the loss of sage grouse habitat and the drop in numbers is no secret, and the weight of evidence can't be denied. It seems that the specter of an ESA listing has been necessary to drive this historic level of collaboration, at least among some, and among the different stakeholders that is currently taking place on behalf of greater sage grouse.    The science clearly indicates that sage grouse habitat must be protected with durable conservation plans that will eventually produce habitat and more birds on the ground. Suggesting there is some other path forward simply serves to unnecessarily confuse the issue.    We must remain on the path we are on today and finalize these plans and begin--as Kathleen noted that the state of Utah is implementing--we need to implement these things broadly on the ground and get it over the hump and moving forward.    The vast majority of core sage grouse habitat is on Federal land, so strong Federal plans covering both BLM and Forest Service acres are close to being finalized. We are nearly there, but they have to be coupled with strong state plans and reflect state-specific approaches to sage grouse conservation. We believe this will be enough to thwart off the listing.    Science-based state and Federal conservation plans implemented with adequate funding represent the only way to maintain state authority of the sage grouse plan--the sage grouse management. Fundamentally shifting Federal land management and decisionmaking to the states at this stage of the game, or delaying Federal action on a listing, are perhaps the best ways to ensure the bird winds up on the list. Actions like this only serve to take focus off what must be done.    And, interestingly, we are only hearing from a minority about the delays needed to allow the state plans to develop and manifest. We are not hearing from the U.S. Fish and Wildlife Service that they require a delay to get to a not-warranted decision. As such, we believe Congress should let the current process and historic collaboration continue, and we believe we will have a successful conclusion.    I would again like to thank you for the opportunity to testify today, and I will be happy to answer questions after the other speakers. Thank you.</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Miller. Well, good morning, Mr. Chairman and members of the committee. Thank you for holding this important oversight hearing on empowering state management of greater sage grouse. My name is Dustin Miller, and I am the Administrator for Idaho Governor C.L. Butch Otter's Office of Species Conservation, an agency charged with balancing the conservation and recovery of federally listed and candidate species with the economic vitality of the state. It sure is a pleasure to be here before you this morning.    In Idaho, we are blessed with abundant natural resources, which is why we take conservation over fish and wildlife populations very seriously. People in our state care deeply about these issues and have a certain tenacity to roll up their sleeves and develop grass-roots, proactive solutions to complex natural resource issues; and that is exactly what Idahoans have been doing on the greater sage grouse front.    In 2011, then-Secretary of the Interior Ken Salazar invited 11 western states to partner with the Federal Government and develop state-based conservation plans to preclude the need to list greater sage grouse under the Endangered Species Act. In March of 2012, Governor Otter took the Secretary up on his offer, and created an executive task force charged with developing recommendations on actions needed to accomplish this goal.    The Governor's sage grouse task force was comprised of a diverse group of stakeholders, advised predominantly by our local sage grouse experts and policy advisors. This group worked diligently under a compressed time frame to develop meaningful recommendations leading to the development of a Governor's Sage Grouse Conservation Plan, which was subsequently incorporated as an alternative within the Federal land use planning effort.    In Idaho, we have focused the majority of our conservation planning efforts on addressing the primary threats to greater sage grouse, which are wildfire and invasive species. As such, the Governor's plan centers on an innovative approach to dealing with those primary threats through the application of a three-tiered habitat conservation system and an associated adaptive management strategy. The Governor's plan also implements proactive actions that aim to protect key sage grouse habitat through greater emphasis on wildfire prevention, suppression, and restoration.    The conservation efficacy of the Governor's plan is significant, as it truly is a landscape approach that takes into account the entire life history of greater sage grouse. In fact, the U.S. Fish and Wildlife Service has stated in writing that the foundational elements of the strategy are scientifically sound and consistent with the Service's desired conservation objectives. The Idaho BLM has also given great credence to the Governor's plan, by including it as a co-preferred alternative within the Federal land use planning effort in Idaho.    Months of collaborating with our Federal partners to refine the co-preferred alternatives led us to genuinely believe that our state and Federal collaboration was going to be a success. However, recent top-down direction from the national BLM office has presented us with some unique challenges that, without resolution, stand to undermine our collaborative sage grouse conservation efforts.    The Department of the Interior and the national BLM office are well aware of our concerns, and have engaged us in an effort to resolve these concerns. However, while we have made some progress, we still need a genuine commitment from the Federal Government to work toward a mutually agreeable solution concerning the application of sagebrush focal areas on 3.5 million acres of our core sage grouse habitat in Idaho.    Two years ago, a significant milestone in the collaborative effort initiated by Secretary Salazar was achieved when states, in partnership with the Service, developed a set of objectives for addressing the threats to greater sage grouse. The resulting report titled, ``The Conservation Objectives Team Report,'' represents the goalpost for achieving success. One of the cornerstones of this report is the flexibility to tailor conservation actions to local ecological and socioeconomic conditions. Unfortunately, the last-minute, standardized Federal direction erodes this flexibility.    Our sage grouse conservation planning efforts in Idaho demonstrate our commitment to conserving this species across the landscape, balanced with preserving the custom, culture, and economic opportunity in Idaho.    Given that the Federal Government manages 74 percent of the habitat in Idaho, the majority of our efforts have been focused on the Federal lands planning process. However, the state recently completed a conservation plan for state endowment lands that complements the Governor's plan for Federal lands.    Additionally, the Natural Resources Conservation Service, through the sage grouse initiatives, continues to make significant investments in Idaho by working with private landowners and ranchers on voluntary sage grouse conservation actions.    The state of Idaho holds the notion that local collaboration, local ideas, and local efforts garner the greatest results. The people in Idaho wish to see this iconic western species continue to thrive on the sage-steppe landscape for generations to come, and we believe that our collaborative planning efforts ensures that vision.    Mr. Chairman, that concludes my testimony.</t>
   </si>
   <si>
-    <t>Swartout</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Swartout. Thank you, Mr. Chairman, for this opportunity to provide our perspective on how the state of Colorado has worked to conserve and protect the greater sage grouse. I thank you and your colleagues for your thoughtful consideration and your efforts to gather the information necessary to properly evaluate these matters.    Colorado has a proud record of collaboration with landowners, wildlife managers, ranchers, conservation groups, and state and Federal agencies; and together we have made stewardship of the species a priority. The state's wildlife management agency, Colorado Parks and Wildlife--we call it CPW--has exceptionally strong in-house capabilities to develop research and science. Colorado puts an enormous amount of resources into that development of research and capabilities for the agency, and they have developed site-specific science regarding the greater sage grouse.    Relying on that expertise, CPW has collected and analyzed Colorado-specific data to assess habitat quality, threats to habitat, and the impacts of various changes to habitat for greater sage grouse. In 2008, working with landowners, stakeholders, Federal agencies, and other state agencies and conservation groups, our biologists developed a comprehensive management plan for the greater sage grouse, which was designed to increase the abundance and viability of the species and its habitat.    In 2013 and 2014, Colorado updated the plan. Additionally, Colorado's regulatory framework for energy development proactively engages our important oil and gas industry in helping to protect the greater sage grouse and its habitat. The Colorado Oil and Gas Conservation Commission's 1200-series rules require consultation with CPW whenever an operator seeks to develop energy resources in sensitive wildlife habitat.    Concerted cooperation among our agricultural producers and our wildlife agency has resulted in the ``Ranching for Sage Grouse'' program. This program provides landowners with the best-available science and management tools for grazing in habitat areas, and protecting the greater sage grouse populations. The effectiveness of these broad-based conservation efforts are borne out by data.    Since 2003, Colorado Parks and Wildlife has protected over 80,000 acres of sage grouse habitat through fee title purchase or conservation easement at a cost of just over $52 million.    Additionally, the land trust community in Colorado has protected an additional 154,000 acres of private land in greater sage grouse habitat areas through conservation easements, including some of the best sage grouse habitat and largest leks in the state.    Since 2005, CPW has expended more than $9.2 million to conduct annual operations in support of greater sage grouse conservation.    Just last week, the governor of Colorado issued an executive order that calls on state agencies to take further actions to reduce impacts on greater sage grouse.    I must say that the Western Governors continue to work with each other and Interior Secretary Jewell within the National Sage Grouse Task Force to create robust state and Federal plans that protect the greater sage grouse. It has been a tremendous effort, and we want to thank Secretary Jewell and her team for partnering with us and working on these plans. It hasn't been easy.    In closing, let me just stress this point: Colorado has worked closely with many partners across the spectrum, including local governments, landowners, conservationists, and my friend, Ed Arnett, sitting next to me. A decision by the Fish and Wildlife Service to list the greater sage grouse puts all this cooperation at risk, and threatens to pull apart the coalitions that we built in Colorado.    To close, I would just like to say that despite all of the above and despite our concern about a listing, the governor of Colorado thinks that congressional action at this time, to delay a listing, doesn't provide the state with the kind of regulatory certainty that we need.    And we continue to work with Secretary Jewell and her team. There are difficulties--this is a negotiation--but we continue to work with them, and we think we are very close to reaching an agreement that will allow us to get to a not-warranted decision, that will justify a not-warranted decision by the U.S. Fish and Wildlife Service. It has been a difficult effort. There are issues that the states have, but we continue in earnest to work with the Secretary and her team.    Thank you, Mr. Chair. That concludes my testimony.</t>
   </si>
   <si>
     <t>412295</t>
   </si>
   <si>
-    <t>Tom McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chair, thank you for this opportunity to provide our perspective on how the state of Colorado has worked to conserve and protect the greater sage grouse. I thank you and your colleagues for your thoughtful consideration and your efforts to gather the information necessary to properly evaluate these matters.    Colorado has a proud record of collaboration with landowners, wildlife managers, ranchers, conservation groups and state and Federal agencies, and together we've made stewardship of this species a priority. All of us have worked tirelessly, using the best available, site-specific science to protect both the species and its habitat. Today I want to briefly describe to you what we've accomplished.    The state's wildlife management agency, Colorado Parks and Wildlife (CPW), has exceptionally strong in-house research capabilities, and its biologists have played a critical role in developing and updating state-specific science regarding greater sage-grouse.    Relying on that expertise, CPW has collected and analyzed Colorado-specific data to assess habitat quality, threats to habitat, and the impact of various changes in habitat on greater sage-grouse populations. In 2008, working with dozens of stakeholders from state and Federal agencies, as well as private landowners and conservation groups, CPW biologists developed a comprehensive management plan (Conservation Plan) for the greater sage-grouse which was designed to increase the abundance and viability of the species and its habitat.    Following feedback from the U.S. Fish and Wildlife Service (FWS), in 2013 CPW completed the ``Colorado Package,'' a comprehensive update and status review to the Conservation Plan. The state updated the Conservation Plan once again in 2014 in its ``Synthesis Report,'' providing additional information on the implementation and effects of conservation efforts. These conservation efforts have been designed to address the threats initially identified by CPW in its analyses of Colorado-specific data, and subsequently mirrored in the Federal Government's Conservation Objective Team and National Technical Team reports.    Additionally, Colorado's regulatory framework for energy development proactively engages our important oil and gas industry in helping to protect the greater sage-grouse and its habitat. The Colorado Oil and Gas Conservation Commission's 1200-series rules require consultation with CPW whenever an operator seeks to develop energy resources in sensitive wildlife habitat. Typically, where greater sage-grouse habitat has been implicated, these consultations lead to site visits and detailed, site-specific recommendations. An independent study of the consultation process showed that industry has complied with recommendations received from CPW 97 percent of the time when seeking to develop projects in sensitive wildlife habitat.    Concerted cooperation among agriculture producers and CPW has resulted in the ``Ranching for Sage-grouse'' program, which provides landowners with the best available science and management tools for grazing in habitat areas and protecting greater sage-grouse populations. Local efforts to conserve the greater sage-grouse have also been robust, as detailed in the Colorado Package and the Synthesis Report. For example, local governments in northwest Colorado have reviewed their zoning regulations to better accommodate greater sage-grouse habitat conservation objectives. With 164 grazing and multiple use leases in habitat areas, the Colorado State Land Board (SLB) has management authority over 393,269 acres of greater sage-grouse habitat. Currently, SLB is pursuing a detailed inventory of state trust lands located in greater sage-grouse habitat, and will apply site-specific adjustments to its management regime based on the results of the inventory. The effectiveness of these broad-based conservation efforts is borne out by the data.    Since 2003, CPW has protected over 80,600 acres of greater sage-grouse habitat through fee title purchase or conservation easement at a cost of approximately $52.8 million.    Additionally, the land trust community in Colorado has protected an additional 154,181 acres of private land in greater sage-grouse habitat areas through conservation easements, including some of the best sage-grouse habitat and largest leks in the state. CPW has completed four Wildlife Mitigation Plans with oil and gas operators covering a total of 57,697 acres in the Parachute-Piceance-Roan greater sage-grouse population, incorporating avoidance measures and best management practices for minimizing impacts.    Since 2005, CPW has expended more than $9.2 million to conduct annual operations in support of greater sage-grouse conservation.    Just last week, Colorado Governor John Hickenlooper issued an executive order that calls on state agencies to take further actions to reduce impacts to the greater sage grouse. Those actions include: increasing coordination with Colorado Parks and Wildlife, launching a market-based habitat exchange, taking inventory of--and improving habitat within--state lands with grouse populations and strengthening the role of the Oil and Gas Conservation Commission.    It's also worth mentioning the same kind of collaborative work we've conducted for the Gunnison sage grouse, a sub-species with a narrower habitat range than the greater. CPW has invested more than $40 million on conservation and management of the Gunnison sage grouse since 2005. Our partners have contributed an additional $10 million.    Since 2003, state wildlife managers have protected more than 30,000 acres of Gunnison sage grouse habitat (primarily via conservation easements). About 68,000 additional acres are managed by other conservation interests such as The Nature Conservancy.    Between lands in public ownership and private lands secured by conservation easements, about 55 percent of Gunnison sage grouse's mapped range has some level of protection from development. Despite our proactive and extensive and ongoing range-wide conservation measures to protect greater sage-grouse, in 2010, FWS determined that the species was ``warranted but precluded'' for listing under the Endangered Species Act (ESA) throughout its entire 11-state range.    FWS must determine by September 30, 2015 whether the sage-grouse still warrants protection under the ESA and if so, whether to propose an ``endangered'' or a ``threatened'' listing for the species.    Western Governors continue to work with each other and Secretary of the Interior, Sally Jewell, within the National Sage Grouse Task Force to create robust state and Federal plans to protect the greater sage-grouse. It has been a tremendous effort on everyone's part. We want to thank Secretary Jewell and her team for their efforts.    Colorado firmly believes that state-led efforts provide the most effective approach to protecting and conserving the species and its habitat. The listing of the greater sage-grouse under the ESA would have a significant and detrimental economic impact on the state. Given the limited resources available to the Federal agencies charged with managing a federally listed species, the state is concerned that the health and vitality of the greater sage-grouse population may also decline as a result of a listing, setting back the conservation gains made to date under the our Conservation Plan.    In closing, let me stress this point: Colorado has worked closely with many partners across the spectrum, including local governments, landowners and conservationists.    A decision by Fish and Wildlife to list the greater sage grouse puts at risk all this cooperation and threatens to pull apart the very coalitions that--to date--have made enormous progress is conserving the sage grouse and its habitat. Our partners will be left wondering: What was the point of all this effort? We've taken enormous steps to avoid a listing and the accompanying Federal intervention only to have our efforts answered with a listing. That kind of outcome not only jeopardizes our progress with the sage grouse, but any other work we're doing to conserve these treasured species in Colorado and the Rocky Mountain West.                                 ______                                 Questions Submitted for the Record by Rob Bishop to Mr. John Swartout,    Senior Policy Advisor, Office of Governor Hickenlooper, State of                                 ColoradoMr. Swartout did not submit responses to the Committee by the appropriate deadline for inclusion in the printed record.    Question 1. During the hearing, the recent PEW study was referred to. Has your state had a chance to review the study including the methodology used?    Do you support the study's conclusion and if not, why not?    Do you have data to suggest that the conclusions in the PEW study are incorrect?    If yes, please provide any data to the committee.    Question 2. Please explain the activities of your state to work with private landowners in your efforts to create/expand habitat for the sage grouse.    Will the draft RMP revisions enhance your efforts in that regard or make such tasks harder?    Question 3. Are the goals of Director Ashe's October (2014) memo consistent with your analysis of the problems facing the sage grouse?    If yes, please explain. If these proposals miss the mark, please explain.                                 ______                                     The Chairman. Thank you. We will now turn to the committee for questions. I will always go last, in an effort to make sure that Rep. Hardy actually gets to ask some questions here today. Stick around, we will see what happens.    Turning to Mr. McClintock, do you have any questions?    Mr. McClintock. Thank you, Mr. Chairman. The first question I have relates to an experience I had a few years ago on the Klamath, where they are trying to tear down four perfectly good hydroelectric dams because of a catastrophic decline on the salmon population. I asked them, ``Well, why doesn't somebody build a fish hatchery? ''    Well, it turns out somebody did build a fish hatchery. It produces 5 million salmon smolts every year. Seventeen thousand return as fully grown adults to spawn in the Klamath. The problem is, they don't let us include them in the population counts. I, for the life of me, don't understand why we don't allow such things as captive breeding programs to meet the ESA requirements. None of us want to see a species go extinct because of human activity, but there are so many more flexible ways of accomplishing that.    Ms. Clarke, what are your thoughts?</t>
   </si>
   <si>
@@ -181,9 +151,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman. And thank you to all of our witnesses today.    I want to take a step backward from the discussion that we have been having, because I think despite some of the tension in the room, I really think that there is some agreement about the importance of protecting the greater sage grouse and the significant role that the bird plays in local ecosystems and economies.    I, like you, have never seen the sage grouse; but I am married to a man that has, and knows its importance. So, I think I want to go back, if I can get through my questions, to ask you a question about the original intent of the Endangered Species Act. But first, I would like--because we do have different views and ideas about how to get there--I would like to explore that a bit further.    Dr. Arnett, I found your testimony very interesting, at 2:00 a.m. this morning, as you tried to bring the Federal and the state level together. I think everyone in this room wants to avoid a listing of the greater sage grouse under the Endangered Species Act. What do you think the best way to accomplish that is?</t>
   </si>
   <si>
@@ -202,9 +169,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you, Mr. Chairman. Thank you all for being here this morning. I appreciate your questions, Mrs. Dingell--my colleague from Michigan, by the way.    I would like to ask you all about the working relationship that you have with the Federal Government on conservation issues. Now, we have talked about the state's efforts to do this management; and, frankly, I agree with you, because I think that the Feds just don't have the intimate knowledge of the states that local conservation people do. They know the areas that are involved, so I am on board with you.    But I want to know what level of cooperation exists at this point in time? Could maybe each of you kind of clue me into that briefly, so that I could ask another question?</t>
   </si>
   <si>
@@ -292,18 +256,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman. Just real quick, I think what I hear and what I read is that wildfire and invasive species are the largest threat. But it seems like the environmentalist movement is wanting to threaten the development of energy, oil and gas, in the sage grouse region. I have concern about that. How do we address that wildfire and invasive species ought to be the focus.    I don't have a dog in the fight. I am going to yield my time to the gentleman from Montana, Mr. Zinke.</t>
   </si>
   <si>
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman. I guess the collaborative process is an enormous effort. It takes experts sitting together at a table, and when the Federal Government, or a higher authority, intervenes and say they know best, it concerns me. It concerns me in Montana that I have talked to the Director of the BLM. Nowhere do I see what a healthy population number is in Montana, and we are talking about Montana, where the CMR is larger than most states.    So, when I don't know what a target number is, when the plan doesn't have anything constructive, other than habitat, when it doesn't address wildfire, it doesn't address predators, and yet, locally, the farmers, the ranchers, the people that live on the land have expressed a considerable desire to save the species in a constructive manner that looks at predators, looks at wildfire, looks at weather--and so, I guess my question to Ms. Clarke is that you have been around this process. Other than perhaps a taxidermy, or the Smithsonian Institute, is there an example of the sage grouse within the DC area, living?</t>
   </si>
   <si>
@@ -388,9 +346,6 @@
     <t>412510</t>
   </si>
   <si>
-    <t>Doug LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman. I appreciate this. This is also very critical in my northeast California district that borders Nevada and Mr. Amodei's district, where the sage grouse, or otherwise known as sage hen, is quite an issue. The bi-state situation was a good sign.    The problem is, with the threat of any kind of list, some are referring to it as a good pressure. But what we have are Federal agencies that are unable to keep up with the management of their lands, whether it is BLM or the Forest Service. So, we have this proliferation of juniper, big-time, in our area here, and a listing just takes options off the table. I imagine the juniper eradication is going much more slowly because we are pussy-footing around. There might be sage hen habitat out there that is a problem, but we don't nearly keep up with the juniper or--Mr. Zinke mentioned predators, too. That is a bigger consideration we ought to be looking at. Maybe not as much in my area as his, but--all the options.    What are the things that you would actually do to really improve the situation? We move so slowly with EISs and studying and talking, and all this, when it is the farmers, the ranchers, it is the people that live in the area that actually know and understand what it takes, where the species is, what it would take to help make it a little better, you know?    I mean the regulation, the threat of listing, has gotten everybody's attention. Farmers and ranchers are willing. These landowners, the ones that are adjacent to the Federal lands, they are willing to do things. Maybe in the past there were some stiff-necked folks, I certainly get that. But they are willing to step forward and do it.    When we have these listings--as Mr. McClintock mentioned with the Yosemite toad, yellow-legged frog and all that, 2 million acres are--who knows? By the time they are done implementing their plan, their proposal, it will probably mean people can do less things in the area to manage timber, to manage the lands, to do things that would dovetail well with the species and its recovery. It will just be off limits, instead. The whole forest will burn. In the case we are talking about here, more and more juniper grows because we are afraid we might disturb a nesting grouse, instead of doing things that are going to improve it.    It is a big frustration. So, I don't think any more pressure to go through with a listing, especially since so many listings these days come from a deal cut by government with a bunch of environmental groups that have a long Christmas wish list of species they want to list, and there is no time to go through all those processes, because they take so long, so they get sued, they just cut a deal, list them anyway. That is the great frustration I see out in districts like mine and neighboring ones.    So, Ms. Clarke, again, up there in Utah, have you seen that the sage grouse are actually using the treated areas that the state is creating? Is it something----</t>
   </si>
   <si>
@@ -442,9 +397,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman. Looking at the photograph here of the sage grouse, it is obviously a very beautiful bird, much like the heath hen. We don't have any of those in Arkansas. Matter of fact, if we were to see one, someone might assess that a bobwhite quail got too friendly with a dominecker hen. But, although we don't have sage grouse, we do have endangered species.    Ms. Clarke, you mentioned in your testimony that people manage species and regulations manage people. Do you feel that the threat of a listing is being used to micro-manage state policies and land use decisions?</t>
   </si>
   <si>
@@ -496,9 +448,6 @@
     <t>412631</t>
   </si>
   <si>
-    <t>Garret Graves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman. Thank you all for being here. I appreciate you offering testimony and perspective.    Ms. Clarke, I apologize that I missed your oral testimony, but I did have a chance to read through your written testimony, and I see a number of statements here regarding frustrations.    Let me ask. Do you think the sage grouse--and I am sure I am asking you to repeat yourself--is worth protecting?</t>
   </si>
   <si>
@@ -550,9 +499,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. We did draw the parallel, thank you. Thank you, Mr. Chairman. Thank you all for being here this morning. Very interesting testimony, and appreciate your taking the time to enlighten us.    Particularly, Ms. Clarke, I found your testimony interesting, considering your background, your work at the Federal level and now at the state level. I think I could get from your testimony the feeling of being burdened by regulations toward your efforts at saving the greater sage grouse.    I live in central Washington. In my district we have the Yakima Training Center, which is a 327,000-acre training site for our military. Of that, there are 77,000 acres that are currently designated sage grouse protection area. The Army has already taken various steps and spent a lot of money to operate in a manner that minimizes its impact on these species, things like seasonal management and habitat protection.    If ESA further, under a listing, would further impact and, really, take a lot of the training center out of being operable, and very severely limit its ability to carry out its mission. So, with that kind of a perspective for me, I would like you to elaborate, Ms. Clarke, a little bit further on your testimony that Federal regulators' focus is increasingly unilateral and somewhat dismissive of the state conservation action.</t>
   </si>
   <si>
@@ -571,9 +517,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy. Thank you, Mr. Chairman. I almost feel guilty going ahead of Mr. Tipton. In Nevada, 15 of the 17 counties are--sage grouse is involved in those areas. I guess this would both go to Ms. Clarke and Mr. Miller. With the process of knowing that, let's see--165 million acres of land are basically sage grouse range throughout the West, and 64 percent of that is Federal lands. In the state of Nevada, it is 17.6 million acres, and 87 percent of that----</t>
   </si>
   <si>
@@ -631,9 +574,6 @@
     <t xml:space="preserve">    Mr. Hardy. Thank you. Thank you, Mr. Chairman.    The Chairman. Mr. Tipton.</t>
   </si>
   <si>
-    <t>Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. I appreciate the opportunity to be with the committee. I would like to thank our panel for taking time to be able to be here. Great to see a fellow Coloradoan, Mr. Swartout, here, as well.    Incredibly important issue, I think, for the state of Colorado and for the western United States. A blanket question for all four of you: What is the number that the Department of the Interior has established as recovery for the greater sage grouse?    Ms. Clarke?</t>
   </si>
   <si>
@@ -722,9 +662,6 @@
   </si>
   <si>
     <t>412623</t>
-  </si>
-  <si>
-    <t>Jody B. Hice</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman, and thank you for holding this hearing. For each of the witnesses again, I, as my other colleagues, thank you for being here.    I am a Member from the state of Georgia. And, obviously, my district is not directly impacted by the sage grouse, but certainly all of us are impacted in various ways from the Endangered Species Act and so forth.    Ms. Clarke, let me begin with you. You have provided some contrast between natural threats and the human impact of rural development, oil, gas, some of these other things, drilling. As it relates to the U.S. Fish and Wildlife Service and the Bureau of Land Management, do you believe that the focus has been on the most important challenges of the sage grouse conservation?</t>
@@ -1459,11 +1396,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1483,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1509,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1535,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1561,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1589,11 +1516,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1613,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1639,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1665,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1691,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1717,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1743,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1769,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1795,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1821,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1847,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1873,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1899,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1925,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1951,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1977,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2003,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2029,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2055,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2081,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2107,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2133,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2159,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2185,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2211,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2237,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2263,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2289,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2315,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2341,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2367,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2393,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2419,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2445,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2471,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2497,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2523,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2549,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2575,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2601,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2627,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2653,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2679,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2705,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2731,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2757,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2783,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2809,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2835,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2861,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2887,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2913,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2939,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2965,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2991,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
-      </c>
-      <c r="G61" t="s">
-        <v>92</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3017,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3043,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3069,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3095,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3121,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3147,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3173,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3199,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3225,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3251,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>91</v>
-      </c>
-      <c r="G71" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3279,11 +3076,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3303,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3331,11 +3124,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3355,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3383,11 +3172,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3407,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3435,11 +3220,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3459,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3487,11 +3268,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3511,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3539,11 +3316,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3563,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3591,11 +3364,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3615,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3643,11 +3412,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3667,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3695,11 +3460,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3719,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G89" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3745,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3771,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
-      </c>
-      <c r="G91" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3797,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3823,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
-      </c>
-      <c r="G93" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3849,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3875,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
-      </c>
-      <c r="G95" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3901,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3927,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
-      </c>
-      <c r="G97" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3953,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3979,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4005,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4031,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4057,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4083,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
-      </c>
-      <c r="G103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>124</v>
-      </c>
-      <c r="H103" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4109,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4135,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G105" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4161,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4187,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
-      </c>
-      <c r="G107" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4213,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4239,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G109" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4265,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4291,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
-      </c>
-      <c r="G111" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4317,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4343,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>141</v>
-      </c>
-      <c r="G113" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4369,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4395,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>141</v>
-      </c>
-      <c r="G115" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4421,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4447,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>141</v>
-      </c>
-      <c r="G117" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4473,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4499,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4525,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4551,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>141</v>
-      </c>
-      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
         <v>142</v>
-      </c>
-      <c r="H121" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4577,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>159</v>
-      </c>
-      <c r="G122" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4603,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4629,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>159</v>
-      </c>
-      <c r="G124" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4655,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4681,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4707,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4733,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4759,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4785,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4811,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4837,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4863,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4889,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G134" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4915,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4941,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" t="s">
-        <v>160</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4967,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
+        <v>143</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
         <v>159</v>
-      </c>
-      <c r="G137" t="s">
-        <v>160</v>
-      </c>
-      <c r="H137" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4993,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>177</v>
-      </c>
-      <c r="G138" t="s">
-        <v>178</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5019,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5045,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G140" t="s">
-        <v>178</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5071,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5097,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
-      </c>
-      <c r="G142" t="s">
-        <v>178</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5123,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
-      </c>
-      <c r="G143" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5149,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5175,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>184</v>
-      </c>
-      <c r="G145" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5201,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5227,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
-      </c>
-      <c r="G147" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5253,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5279,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
-      </c>
-      <c r="G149" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5305,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5331,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>184</v>
-      </c>
-      <c r="G151" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5357,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5383,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>184</v>
-      </c>
-      <c r="G153" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5409,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5435,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>184</v>
-      </c>
-      <c r="G155" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5461,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5487,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>184</v>
-      </c>
-      <c r="G157" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5513,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5539,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>184</v>
-      </c>
-      <c r="G159" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5565,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5591,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>184</v>
-      </c>
-      <c r="G161" t="s">
+        <v>166</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
         <v>185</v>
-      </c>
-      <c r="H161" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5617,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5643,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5669,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5695,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5721,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5747,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5773,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>28</v>
-      </c>
-      <c r="G168" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5799,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5825,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5851,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>28</v>
-      </c>
-      <c r="G171" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5877,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5903,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5929,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
-      </c>
-      <c r="G174" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5955,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-      <c r="G175" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5981,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
-      </c>
-      <c r="G176" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6007,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
-      </c>
-      <c r="G177" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6033,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
-      </c>
-      <c r="G178" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6059,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>28</v>
-      </c>
-      <c r="G179" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6085,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
-      </c>
-      <c r="G180" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6111,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
-      </c>
-      <c r="G181" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6137,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
-      </c>
-      <c r="G182" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6163,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
-      </c>
-      <c r="G183" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6189,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6215,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
-      </c>
-      <c r="G185" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6241,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>28</v>
-      </c>
-      <c r="G186" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6267,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6293,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6319,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6345,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6371,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>235</v>
-      </c>
-      <c r="G191" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6397,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6423,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>235</v>
-      </c>
-      <c r="G193" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6449,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
-      </c>
-      <c r="G194" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6475,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>235</v>
-      </c>
-      <c r="G195" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6501,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>28</v>
-      </c>
-      <c r="G196" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6527,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>235</v>
-      </c>
-      <c r="G197" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6553,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>28</v>
-      </c>
-      <c r="G198" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6579,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>235</v>
-      </c>
-      <c r="G199" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6605,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
-      </c>
-      <c r="G200" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6631,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>235</v>
-      </c>
-      <c r="G201" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6657,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
-      </c>
-      <c r="G202" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6683,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>235</v>
-      </c>
-      <c r="G203" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6709,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6735,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>235</v>
-      </c>
-      <c r="G205" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6761,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
-      </c>
-      <c r="G206" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6787,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>235</v>
-      </c>
-      <c r="G207" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6813,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>28</v>
-      </c>
-      <c r="G208" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6839,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>235</v>
-      </c>
-      <c r="G209" t="s">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6865,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>28</v>
-      </c>
-      <c r="G210" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6891,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>235</v>
-      </c>
-      <c r="G211" t="s">
+        <v>215</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
         <v>236</v>
-      </c>
-      <c r="H211" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6917,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
-      </c>
-      <c r="G212" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6943,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>28</v>
-      </c>
-      <c r="G213" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6969,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>28</v>
-      </c>
-      <c r="G214" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6995,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>28</v>
-      </c>
-      <c r="G215" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7021,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>28</v>
-      </c>
-      <c r="G216" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7047,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
-      </c>
-      <c r="G217" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7073,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>28</v>
-      </c>
-      <c r="G218" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7099,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>28</v>
-      </c>
-      <c r="G219" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7125,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>28</v>
-      </c>
-      <c r="G220" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7151,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>28</v>
-      </c>
-      <c r="G221" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7177,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>28</v>
-      </c>
-      <c r="G222" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7203,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>28</v>
-      </c>
-      <c r="G223" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7229,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>28</v>
-      </c>
-      <c r="G224" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7255,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>28</v>
-      </c>
-      <c r="G225" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7281,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>28</v>
-      </c>
-      <c r="G226" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7309,11 +6796,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7335,11 +6820,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7359,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>28</v>
-      </c>
-      <c r="G229" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7387,11 +6868,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7411,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>28</v>
-      </c>
-      <c r="G231" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7439,11 +6916,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7463,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>28</v>
-      </c>
-      <c r="G233" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7489,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>28</v>
-      </c>
-      <c r="G234" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7515,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>28</v>
-      </c>
-      <c r="G235" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7541,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>28</v>
-      </c>
-      <c r="G236" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7567,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>28</v>
-      </c>
-      <c r="G237" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7593,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>28</v>
-      </c>
-      <c r="G238" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7619,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>28</v>
-      </c>
-      <c r="G239" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7645,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>28</v>
-      </c>
-      <c r="G240" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7671,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>28</v>
-      </c>
-      <c r="G241" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7697,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>28</v>
-      </c>
-      <c r="G242" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7723,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
-      </c>
-      <c r="G243" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7749,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>28</v>
-      </c>
-      <c r="G244" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7775,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7801,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>28</v>
-      </c>
-      <c r="G246" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7827,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>28</v>
-      </c>
-      <c r="G247" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7853,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
-      </c>
-      <c r="G248" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7879,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>28</v>
-      </c>
-      <c r="G249" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7905,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>28</v>
-      </c>
-      <c r="G250" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7931,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>28</v>
-      </c>
-      <c r="G251" t="s">
-        <v>205</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7957,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>123</v>
-      </c>
-      <c r="G252" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7983,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8009,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>28</v>
-      </c>
-      <c r="G254" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8035,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>20</v>
-      </c>
-      <c r="G255" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8061,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>28</v>
-      </c>
-      <c r="G256" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8087,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8113,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>28</v>
-      </c>
-      <c r="G258" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8139,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8165,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>28</v>
-      </c>
-      <c r="G260" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8191,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8217,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>28</v>
-      </c>
-      <c r="G262" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8243,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>20</v>
-      </c>
-      <c r="G263" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8269,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>28</v>
-      </c>
-      <c r="G264" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8295,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="G265" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8321,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>28</v>
-      </c>
-      <c r="G266" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8347,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8373,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>28</v>
-      </c>
-      <c r="G268" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8399,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8425,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>28</v>
-      </c>
-      <c r="G270" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8451,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8477,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>28</v>
-      </c>
-      <c r="G272" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8503,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8529,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>28</v>
-      </c>
-      <c r="G274" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8555,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8581,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>28</v>
-      </c>
-      <c r="G276" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8607,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="G277" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8633,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>123</v>
-      </c>
-      <c r="G278" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8659,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>123</v>
-      </c>
-      <c r="G279" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8685,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>123</v>
-      </c>
-      <c r="G280" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8711,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>28</v>
-      </c>
-      <c r="G281" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8737,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>123</v>
-      </c>
-      <c r="G282" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8763,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>28</v>
-      </c>
-      <c r="G283" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8789,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>123</v>
-      </c>
-      <c r="G284" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8815,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>28</v>
-      </c>
-      <c r="G285" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8841,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>123</v>
-      </c>
-      <c r="G286" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8867,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>28</v>
-      </c>
-      <c r="G287" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8893,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>123</v>
-      </c>
-      <c r="G288" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8919,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>28</v>
-      </c>
-      <c r="G289" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8945,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>123</v>
-      </c>
-      <c r="G290" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8971,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>28</v>
-      </c>
-      <c r="G291" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8997,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>123</v>
-      </c>
-      <c r="G292" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9023,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9049,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>123</v>
-      </c>
-      <c r="G294" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9075,13 +8426,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>28</v>
-      </c>
-      <c r="G295" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9101,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>123</v>
-      </c>
-      <c r="G296" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9127,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>28</v>
-      </c>
-      <c r="G297" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9153,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>123</v>
-      </c>
-      <c r="G298" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9179,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>28</v>
-      </c>
-      <c r="G299" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9205,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>123</v>
-      </c>
-      <c r="G300" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9231,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>28</v>
-      </c>
-      <c r="G301" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9257,13 +8594,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>123</v>
-      </c>
-      <c r="G302" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9283,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>28</v>
-      </c>
-      <c r="G303" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9309,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>123</v>
-      </c>
-      <c r="G304" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
